--- a/成绩单翻译硕.xlsx
+++ b/成绩单翻译硕.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f47af77092ccff/github/Resume/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{41DAC370-0AF5-4AF0-850D-33B2C500D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27A6C117-30A6-454D-B2ED-4CCB17A006F7}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="8_{41DAC370-0AF5-4AF0-850D-33B2C500D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA897E3-0C14-4F54-8AF6-9899B829CE7D}"/>
   <bookViews>
     <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{526B5A3F-42C4-4B3C-8DA8-328D7DC77CB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>English for Degrees</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>Credit Hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Translation(unofficial)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School Transcript of Southeast University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +147,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,12 +165,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -162,12 +194,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,6 +234,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,275 +537,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3269387-756C-4913-9391-BE7FAFDDC1AA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E5" s="7">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>36</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>48</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="7">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E8" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
         <v>32</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
         <v>32</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
         <v>32</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
         <v>32</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
         <v>32</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
         <v>18</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
         <v>16</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
         <v>48</v>
       </c>
-      <c r="D14">
+      <c r="D16" s="7">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E16" s="7">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
         <v>32</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
         <v>94</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>